--- a/BalanceSheet/WDC_bal.xlsx
+++ b/BalanceSheet/WDC_bal.xlsx
@@ -507,19 +507,19 @@
         <v>3683000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-220000000.0</v>
+        <v>3576000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-285000000.0</v>
+        <v>3355000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>21000000.0</v>
+        <v>3070000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>24000000.0</v>
+        <v>3091000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>160000000.0</v>
+        <v>3122000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>3287000000.0</v>
@@ -1887,19 +1887,19 @@
         <v>2204000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-39000000.0</v>
+        <v>2332000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>96000000.0</v>
+        <v>2353000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>70000000.0</v>
+        <v>2352000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-6000000.0</v>
+        <v>2183000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>-128000000.0</v>
+        <v>2100000000.0</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>2231000000.0</v>
@@ -2721,19 +2721,19 @@
         </is>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-16000000.0</v>
+        <v>724000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>11000000.0</v>
+        <v>715000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-29000000.0</v>
+        <v>720000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-11000000.0</v>
+        <v>716000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>-15000000.0</v>
+        <v>708000000.0</v>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
@@ -4456,10 +4456,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B33" s="0" t="n">
+        <v>6195000000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>6431000000.0</v>
@@ -4585,10 +4583,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B34" s="0" t="n">
+        <v>8929000000.0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>9387000000.0</v>
